--- a/2017/02/08-js-xlsx/sample/test.xlsx
+++ b/2017/02/08-js-xlsx/sample/test.xlsx
@@ -4,56 +4,60 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>你是谁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘显安</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>很好啊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中华人民共和国</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发送到</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>防守打法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发生的发生</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>富商大贾单身狗的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发生大幅度</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+  <si>
+    <t>姓名</t>
+  </si>
+  <si>
+    <t>性别</t>
+  </si>
+  <si>
+    <t>年龄</t>
+  </si>
+  <si>
+    <t>张三</t>
+  </si>
+  <si>
+    <t>男</t>
+  </si>
+  <si>
+    <t>李四</t>
+  </si>
+  <si>
+    <t>女</t>
+  </si>
+  <si>
+    <t>籍贯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广东惠州</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>河北石家庄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王二麻子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人妖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泰国曼谷</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -97,8 +101,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -403,94 +409,75 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="4" max="4" width="22.75" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2">
-        <v>123</v>
-      </c>
-      <c r="C2">
-        <v>345</v>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1">
+        <v>18</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B3">
-        <v>54353</v>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1">
+        <v>22</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B4" t="s">
-        <v>4</v>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B5">
-        <v>222</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>